--- a/Data/大阪_神戸_2018年12月30日からの気象データ.xlsx
+++ b/Data/大阪_神戸_2018年12月30日からの気象データ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hub\Stock_Product_file\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99D1520-F6F1-4921-9296-4735939D2726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CD518D-1CD8-4FB0-8732-B342BFA6BFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14640" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="大阪_神戸_2018年12月30日からの気象データ" sheetId="1" r:id="rId1"/>
@@ -1079,6 +1079,1518 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'大阪(都道府県内)_滞在人流'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均現地気圧(hPa)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'大阪(都道府県内)_滞在人流'!$E$2:$E$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>7.3287364149999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.50319745800000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8882480699999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.401482163</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.18691407500000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.9563504000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.9253642310000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.471874135</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-10.142145831000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.5264340409999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-10.877110001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9.3472827019999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.6187507520000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-13.749763838</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-30.716661118000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-34.320802039999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-37.549958834999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-22.989925002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-54.935427865000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-32.850371570999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-26.922604346</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-22.773932888000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-29.903254321999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-28.253266094000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-14.003065294000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-9.1281228369999994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-10.879840709</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-10.509549078999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.6429662180000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-17.700638773000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-7.7227008230000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-7.5211807190000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7973276389999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-9.9660062309999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-9.8107598360000008</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-11.37629227</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-13.184820609999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-7.8437103449999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-15.973048349999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-13.703971208</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-13.007181713</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-9.3356293659999992</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-8.151153313</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-10.811995101999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-10.488321546</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-7.2083573320000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-8.0453669100000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-14.081004782999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-10.858913491999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-13.216972784999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-11.680976447000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-9.7165364830000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-4.0498379050000004</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>28.052967130999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-18.967937915</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-11.072587209</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-13.461282628999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-12.758552414</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-16.659087141000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-4.9737624489999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-10.515960632000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-6.5475576719999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-4.6432311860000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-6.4935031140000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.73195541600000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-6.2986705819999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-5.7549616629999996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-7.678720684</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-8.9980978349999994</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-21.30342212</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.6892783170000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-8.7929484440000003</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-14.381786038</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-10.754855265</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-9.8465814439999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-10.187243053</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-10.985085077999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-5.624295289</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-2.5269141309999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-5.1618003139999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-1.5287117130000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-2.6586056330000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-1.0854177190000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-5.164414936</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-18.699337304</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>25.330054206</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-5.0732087369999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-7.0593343610000003</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-12.969257751000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-14.488375726999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-18.300976172999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-7.5637011870000004</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-9.0704120849999992</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-4.7876311820000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-1.3410504700000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.2449550810000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-5.9058131119999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97100872599999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-1.5701755100000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-5.482727455</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-2.7498641369999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-2.8487211459999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-3.429417924</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-2.600615431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'大阪(都道府県内)_滞在人流'!$J$2:$J$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>1009.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1008.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1013.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1004.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1013.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1011.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1011.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1009.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1003.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1003.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1007.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1006.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1008.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1001.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1002.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1007.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1001.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>998.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1001.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>999.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1001.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>995.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>998.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>996.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>997.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1000.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1003.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1003.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1002.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1001.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>999.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1000.9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1001.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1002.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1001.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1002.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1006.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1007.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1007.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1010.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1010.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1014.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1011.1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1010.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1009.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1009.9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1012.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1008.6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1010.9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1011.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1001.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1010.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1013.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1012.8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1007.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1008.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1004.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1008.6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1010.2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1008.2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1004.1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1004.3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1003.3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>999.3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>997.7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1000.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1005.7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>996.1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>999.1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>997.9</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1000.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1005.1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1003.3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>993.7</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>996.7</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>996.7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1003.9</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1002.7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1003.9</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1003.7</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1005.6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1002.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1011.8</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1008.8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1008.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1008.9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1003.7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1009.9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1007.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1010.6</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1015.2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1008.3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1008.4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1010.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-314E-4A37-8A3E-AD08555F3FEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="910139312"/>
+        <c:axId val="910138064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="910139312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="910138064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="910138064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="910139312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01807F1F-55AA-4FA7-BDB4-9E1BD1826CEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -9473,7 +10985,7 @@
   <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J1" activeCellId="1" sqref="E1:E105 J1:J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13474,6 +14986,7 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13482,7 +14995,7 @@
   <dimension ref="A1:F313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:L107"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
